--- a/biology/Médecine/Interleukine_5/Interleukine_5.xlsx
+++ b/biology/Médecine/Interleukine_5/Interleukine_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' interleukine 5 (IL5) est une glycoprotéine jouant un rôle dans la stimulation des lymphocytes B, la production de leucocytes éosinophiles et la production (ainsi que la glycosylation) des immunoglobulines A. Son gène est IL5 situé sur le chromosome 5 humain. 
 </t>
@@ -511,7 +523,9 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mepolizumab et le reslizumab sont des anticorps monoclonaux ciblant l'interleukine 5, et en cours de test dans l'asthme. Le benralizumab, lui, se fixe sur le récepteur de l'interleukine 5.
 </t>
